--- a/BaseDatos6b.xlsx
+++ b/BaseDatos6b.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="266">
   <si>
     <t>orden reporte</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fresnillo </t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AK136"/>
+    <sheetView tabSelected="1" topLeftCell="T71" workbookViewId="0">
+      <selection activeCell="AC85" sqref="AC85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9361,7 +9364,7 @@
         <v>178</v>
       </c>
       <c r="AC84" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AD84">
         <v>4238</v>
